--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnc-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnc-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tnc</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tnc</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.878645</v>
+        <v>11.5183295</v>
       </c>
       <c r="H2">
-        <v>23.75729</v>
+        <v>23.036659</v>
       </c>
       <c r="I2">
-        <v>0.07103676969057639</v>
+        <v>0.06427717328589268</v>
       </c>
       <c r="J2">
-        <v>0.05446630490984555</v>
+        <v>0.05102762964987022</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>1954.954971338472</v>
+        <v>2321.585604470437</v>
       </c>
       <c r="R2">
-        <v>7819.819885353889</v>
+        <v>9286.342417881749</v>
       </c>
       <c r="S2">
-        <v>0.01648596824172194</v>
+        <v>0.01809197153040724</v>
       </c>
       <c r="T2">
-        <v>0.009834425281987245</v>
+        <v>0.01159080869947105</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.878645</v>
+        <v>11.5183295</v>
       </c>
       <c r="H3">
-        <v>23.75729</v>
+        <v>23.036659</v>
       </c>
       <c r="I3">
-        <v>0.07103676969057639</v>
+        <v>0.06427717328589268</v>
       </c>
       <c r="J3">
-        <v>0.05446630490984555</v>
+        <v>0.05102762964987022</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>1410.75929097556</v>
+        <v>1367.966662750076</v>
       </c>
       <c r="R3">
-        <v>8464.555745853357</v>
+        <v>8207.799976500455</v>
       </c>
       <c r="S3">
-        <v>0.0118968125653624</v>
+        <v>0.0106604787130673</v>
       </c>
       <c r="T3">
-        <v>0.0106452632219474</v>
+        <v>0.01024461893500159</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.878645</v>
+        <v>11.5183295</v>
       </c>
       <c r="H4">
-        <v>23.75729</v>
+        <v>23.036659</v>
       </c>
       <c r="I4">
-        <v>0.07103676969057639</v>
+        <v>0.06427717328589268</v>
       </c>
       <c r="J4">
-        <v>0.05446630490984555</v>
+        <v>0.05102762964987022</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>1004.125108358265</v>
+        <v>893.9713895076278</v>
       </c>
       <c r="R4">
-        <v>6024.750650149589</v>
+        <v>5363.828337045768</v>
       </c>
       <c r="S4">
-        <v>0.008467701246221629</v>
+        <v>0.006966663170561779</v>
       </c>
       <c r="T4">
-        <v>0.007576895757212039</v>
+        <v>0.006694897232281997</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.878645</v>
+        <v>11.5183295</v>
       </c>
       <c r="H5">
-        <v>23.75729</v>
+        <v>23.036659</v>
       </c>
       <c r="I5">
-        <v>0.07103676969057639</v>
+        <v>0.06427717328589268</v>
       </c>
       <c r="J5">
-        <v>0.05446630490984555</v>
+        <v>0.05102762964987022</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>1661.920606561602</v>
+        <v>1981.610429691824</v>
       </c>
       <c r="R5">
-        <v>6647.68242624641</v>
+        <v>7926.441718767297</v>
       </c>
       <c r="S5">
-        <v>0.01401483448044809</v>
+        <v>0.01544256623977488</v>
       </c>
       <c r="T5">
-        <v>0.008360312267773081</v>
+        <v>0.009893439795287567</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.878645</v>
+        <v>11.5183295</v>
       </c>
       <c r="H6">
-        <v>23.75729</v>
+        <v>23.036659</v>
       </c>
       <c r="I6">
-        <v>0.07103676969057639</v>
+        <v>0.06427717328589268</v>
       </c>
       <c r="J6">
-        <v>0.05446630490984555</v>
+        <v>0.05102762964987022</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>1446.02646532018</v>
+        <v>689.3981172702038</v>
       </c>
       <c r="R6">
-        <v>8676.158791921078</v>
+        <v>4136.388703621223</v>
       </c>
       <c r="S6">
-        <v>0.01219421763337919</v>
+        <v>0.005372436444622906</v>
       </c>
       <c r="T6">
-        <v>0.01091138116027632</v>
+        <v>0.005162860468940461</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.878645</v>
+        <v>11.5183295</v>
       </c>
       <c r="H7">
-        <v>23.75729</v>
+        <v>23.036659</v>
       </c>
       <c r="I7">
-        <v>0.07103676969057639</v>
+        <v>0.06427717328589268</v>
       </c>
       <c r="J7">
-        <v>0.05446630490984555</v>
+        <v>0.05102762964987022</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>945.9642294242417</v>
+        <v>993.5992918617296</v>
       </c>
       <c r="R7">
-        <v>5675.78537654545</v>
+        <v>5961.595751170377</v>
       </c>
       <c r="S7">
-        <v>0.007977235523443134</v>
+        <v>0.007743057187458584</v>
       </c>
       <c r="T7">
-        <v>0.007138027220649469</v>
+        <v>0.007441004518887554</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>279.11272</v>
       </c>
       <c r="I8">
-        <v>0.5563840547006929</v>
+        <v>0.5191891952080042</v>
       </c>
       <c r="J8">
-        <v>0.6398978381682568</v>
+        <v>0.6182520002891011</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>15311.86987314359</v>
+        <v>18752.25838308665</v>
       </c>
       <c r="R8">
-        <v>91871.21923886151</v>
+        <v>112513.5502985199</v>
       </c>
       <c r="S8">
-        <v>0.1291236903923141</v>
+        <v>0.1461351776752733</v>
       </c>
       <c r="T8">
-        <v>0.1155398275683896</v>
+        <v>0.140434519741297</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>279.11272</v>
       </c>
       <c r="I9">
-        <v>0.5563840547006929</v>
+        <v>0.5191891952080042</v>
       </c>
       <c r="J9">
-        <v>0.6398978381682568</v>
+        <v>0.6182520002891011</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
         <v>11049.54487568405</v>
       </c>
       <c r="R9">
-        <v>99445.90388115645</v>
+        <v>99445.90388115647</v>
       </c>
       <c r="S9">
-        <v>0.09317986786227099</v>
+        <v>0.08610841268566223</v>
       </c>
       <c r="T9">
-        <v>0.1250659638786116</v>
+        <v>0.1241240518562955</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>279.11272</v>
       </c>
       <c r="I10">
-        <v>0.5563840547006929</v>
+        <v>0.5191891952080042</v>
       </c>
       <c r="J10">
-        <v>0.6398978381682568</v>
+        <v>0.6182520002891011</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>7864.648148397679</v>
+        <v>7220.919379777928</v>
       </c>
       <c r="R10">
-        <v>70781.83333557911</v>
+        <v>64988.27441800135</v>
       </c>
       <c r="S10">
-        <v>0.06632190587900412</v>
+        <v>0.05627217346228669</v>
       </c>
       <c r="T10">
-        <v>0.08901722309034035</v>
+        <v>0.08111553748409003</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>279.11272</v>
       </c>
       <c r="I11">
-        <v>0.5563840547006929</v>
+        <v>0.5191891952080042</v>
       </c>
       <c r="J11">
-        <v>0.6398978381682568</v>
+        <v>0.6182520002891011</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>13016.72541835815</v>
+        <v>16006.16006605396</v>
       </c>
       <c r="R11">
-        <v>78100.35251014888</v>
+        <v>96036.96039632375</v>
       </c>
       <c r="S11">
-        <v>0.109768933302512</v>
+        <v>0.1247350051053768</v>
       </c>
       <c r="T11">
-        <v>0.09822119850822686</v>
+        <v>0.1198691568694469</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>279.11272</v>
       </c>
       <c r="I12">
-        <v>0.5563840547006929</v>
+        <v>0.5191891952080042</v>
       </c>
       <c r="J12">
-        <v>0.6398978381682568</v>
+        <v>0.6182520002891011</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>11325.76933725749</v>
+        <v>5568.509556128648</v>
       </c>
       <c r="R12">
-        <v>101931.9240353174</v>
+        <v>50116.58600515783</v>
       </c>
       <c r="S12">
-        <v>0.09550924514607037</v>
+        <v>0.04339504697233016</v>
       </c>
       <c r="T12">
-        <v>0.1281924526998441</v>
+        <v>0.06255334284656675</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>279.11272</v>
       </c>
       <c r="I13">
-        <v>0.5563840547006929</v>
+        <v>0.5191891952080042</v>
       </c>
       <c r="J13">
-        <v>0.6398978381682568</v>
+        <v>0.6182520002891011</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>7409.112433763956</v>
+        <v>8025.648769687803</v>
       </c>
       <c r="R13">
-        <v>66682.01190387559</v>
+        <v>72230.83892719023</v>
       </c>
       <c r="S13">
-        <v>0.06248041211852128</v>
+        <v>0.06254337930707501</v>
       </c>
       <c r="T13">
-        <v>0.08386117242284424</v>
+        <v>0.09015539149140492</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.02358366666666667</v>
+        <v>74.6205215</v>
       </c>
       <c r="H14">
-        <v>0.07075100000000001</v>
+        <v>149.241043</v>
       </c>
       <c r="I14">
-        <v>0.0001410352357073828</v>
+        <v>0.4164142197129523</v>
       </c>
       <c r="J14">
-        <v>0.0001622047606724708</v>
+        <v>0.3305781741512238</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>3.881335488381834</v>
+        <v>15040.19558673649</v>
       </c>
       <c r="R14">
-        <v>23.288012930291</v>
+        <v>60160.78234694597</v>
       </c>
       <c r="S14">
-        <v>3.273097055177784E-05</v>
+        <v>0.117207304285065</v>
       </c>
       <c r="T14">
-        <v>2.928765962472487E-05</v>
+        <v>0.07509007185124082</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.02358366666666667</v>
+        <v>74.6205215</v>
       </c>
       <c r="H15">
-        <v>0.07075100000000001</v>
+        <v>149.241043</v>
       </c>
       <c r="I15">
-        <v>0.0001410352357073828</v>
+        <v>0.4164142197129523</v>
       </c>
       <c r="J15">
-        <v>0.0001622047606724708</v>
+        <v>0.3305781741512238</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>2.800898323442667</v>
+        <v>8862.256090957051</v>
       </c>
       <c r="R15">
-        <v>25.208084910984</v>
+        <v>53173.53654574231</v>
       </c>
       <c r="S15">
-        <v>2.361973625252026E-05</v>
+        <v>0.06906300787876667</v>
       </c>
       <c r="T15">
-        <v>3.17023961157186E-05</v>
+        <v>0.06636889555022654</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.02358366666666667</v>
+        <v>74.6205215</v>
       </c>
       <c r="H16">
-        <v>0.07075100000000001</v>
+        <v>149.241043</v>
       </c>
       <c r="I16">
-        <v>0.0001410352357073828</v>
+        <v>0.4164142197129523</v>
       </c>
       <c r="J16">
-        <v>0.0001622047606724708</v>
+        <v>0.3305781741512238</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>1.993573496569</v>
+        <v>5791.51788383366</v>
       </c>
       <c r="R16">
-        <v>17.942161469121</v>
+        <v>34749.10730300196</v>
       </c>
       <c r="S16">
-        <v>1.681163496541978E-05</v>
+        <v>0.0451329369334471</v>
       </c>
       <c r="T16">
-        <v>2.256456656960913E-05</v>
+        <v>0.04337232433416576</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.02358366666666667</v>
+        <v>74.6205215</v>
       </c>
       <c r="H17">
-        <v>0.07075100000000001</v>
+        <v>149.241043</v>
       </c>
       <c r="I17">
-        <v>0.0001410352357073828</v>
+        <v>0.4164142197129523</v>
       </c>
       <c r="J17">
-        <v>0.0001622047606724708</v>
+        <v>0.3305781741512238</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>3.299549873879834</v>
+        <v>12837.69522945519</v>
       </c>
       <c r="R17">
-        <v>19.797299243279</v>
+        <v>51350.78091782076</v>
       </c>
       <c r="S17">
-        <v>2.782482217251163E-05</v>
+        <v>0.1000433566438862</v>
       </c>
       <c r="T17">
-        <v>2.489763997733805E-05</v>
+        <v>0.0640938112556349</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.02358366666666667</v>
+        <v>74.6205215</v>
       </c>
       <c r="H18">
-        <v>0.07075100000000001</v>
+        <v>149.241043</v>
       </c>
       <c r="I18">
-        <v>0.0001410352357073828</v>
+        <v>0.4164142197129523</v>
       </c>
       <c r="J18">
-        <v>0.0001622047606724708</v>
+        <v>0.3305781741512238</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>2.870917192094667</v>
+        <v>4466.207277003211</v>
       </c>
       <c r="R18">
-        <v>25.838254728852</v>
+        <v>26797.24366201927</v>
       </c>
       <c r="S18">
-        <v>2.421019938944247E-05</v>
+        <v>0.03480487419841281</v>
       </c>
       <c r="T18">
-        <v>3.249491539105303E-05</v>
+        <v>0.0334471540012874</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.02358366666666667</v>
+        <v>74.6205215</v>
       </c>
       <c r="H19">
-        <v>0.07075100000000001</v>
+        <v>149.241043</v>
       </c>
       <c r="I19">
-        <v>0.0001410352357073828</v>
+        <v>0.4164142197129523</v>
       </c>
       <c r="J19">
-        <v>0.0001622047606724708</v>
+        <v>0.3305781741512238</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>1.878101842872778</v>
+        <v>6436.948805879617</v>
       </c>
       <c r="R19">
-        <v>16.902916585855</v>
+        <v>38621.6928352777</v>
       </c>
       <c r="S19">
-        <v>1.583787237571079E-05</v>
+        <v>0.05016273977337449</v>
       </c>
       <c r="T19">
-        <v>2.125758299402713E-05</v>
+        <v>0.04820591715866836</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>53.592882</v>
+        <v>0.008067</v>
       </c>
       <c r="H20">
-        <v>107.185764</v>
+        <v>0.024201</v>
       </c>
       <c r="I20">
-        <v>0.3204965899467689</v>
+        <v>4.501728804487631E-05</v>
       </c>
       <c r="J20">
-        <v>0.2457356248973998</v>
+        <v>5.360671723953153E-05</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>8820.170237788579</v>
+        <v>1.6259502796185</v>
       </c>
       <c r="R20">
-        <v>35280.68095115432</v>
+        <v>9.755701677711</v>
       </c>
       <c r="S20">
-        <v>0.07437974201892146</v>
+        <v>1.267092891688809E-05</v>
       </c>
       <c r="T20">
-        <v>0.04436997600949934</v>
+        <v>1.217664251295724E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>53.592882</v>
+        <v>0.008067</v>
       </c>
       <c r="H21">
-        <v>107.185764</v>
+        <v>0.024201</v>
       </c>
       <c r="I21">
-        <v>0.3204965899467689</v>
+        <v>4.501728804487631E-05</v>
       </c>
       <c r="J21">
-        <v>0.2457356248973998</v>
+        <v>5.360671723953153E-05</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>6364.922616313294</v>
+        <v>0.9580718339759999</v>
       </c>
       <c r="R21">
-        <v>38189.53569787976</v>
+        <v>8.622646505783999</v>
       </c>
       <c r="S21">
-        <v>0.05367484860365677</v>
+        <v>7.466193928408966E-06</v>
       </c>
       <c r="T21">
-        <v>0.04802823349908737</v>
+        <v>1.076241232923461E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>53.592882</v>
+        <v>0.008067</v>
       </c>
       <c r="H22">
-        <v>107.185764</v>
+        <v>0.024201</v>
       </c>
       <c r="I22">
-        <v>0.3204965899467689</v>
+        <v>4.501728804487631E-05</v>
       </c>
       <c r="J22">
-        <v>0.2457356248973998</v>
+        <v>5.360671723953153E-05</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>4530.311196730073</v>
+        <v>0.626103568157</v>
       </c>
       <c r="R22">
-        <v>27181.86718038044</v>
+        <v>5.634932113413001</v>
       </c>
       <c r="S22">
-        <v>0.0382037272517201</v>
+        <v>4.879185978914899E-06</v>
       </c>
       <c r="T22">
-        <v>0.03418468017543799</v>
+        <v>7.033277174370495E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>53.592882</v>
+        <v>0.008067</v>
       </c>
       <c r="H23">
-        <v>107.185764</v>
+        <v>0.024201</v>
       </c>
       <c r="I23">
-        <v>0.3204965899467689</v>
+        <v>4.501728804487631E-05</v>
       </c>
       <c r="J23">
-        <v>0.2457356248973998</v>
+        <v>5.360671723953153E-05</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>7498.087110173288</v>
+        <v>1.3878445946805</v>
       </c>
       <c r="R23">
-        <v>29992.34844069315</v>
+        <v>8.327067568082999</v>
       </c>
       <c r="S23">
-        <v>0.06323072796267469</v>
+        <v>1.08153861943491E-05</v>
       </c>
       <c r="T23">
-        <v>0.03771922040349848</v>
+        <v>1.039348355530871E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>53.592882</v>
+        <v>0.008067</v>
       </c>
       <c r="H24">
-        <v>107.185764</v>
+        <v>0.024201</v>
       </c>
       <c r="I24">
-        <v>0.3204965899467689</v>
+        <v>4.501728804487631E-05</v>
       </c>
       <c r="J24">
-        <v>0.2457356248973998</v>
+        <v>5.360671723953153E-05</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>6524.037524884487</v>
+        <v>0.4828282271329999</v>
       </c>
       <c r="R24">
-        <v>39144.22514930692</v>
+        <v>4.345454044197</v>
       </c>
       <c r="S24">
-        <v>0.05501665103284174</v>
+        <v>3.762650200167739E-06</v>
       </c>
       <c r="T24">
-        <v>0.04922887778696241</v>
+        <v>5.423806733816222E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>53.592882</v>
+        <v>0.008067</v>
       </c>
       <c r="H25">
-        <v>107.185764</v>
+        <v>0.024201</v>
       </c>
       <c r="I25">
-        <v>0.3204965899467689</v>
+        <v>4.501728804487631E-05</v>
       </c>
       <c r="J25">
-        <v>0.2457356248973998</v>
+        <v>5.360671723953153E-05</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>4267.90676240887</v>
+        <v>0.6958791626379999</v>
       </c>
       <c r="R25">
-        <v>25607.44057445322</v>
+        <v>6.262912463742</v>
       </c>
       <c r="S25">
-        <v>0.03599089307695415</v>
+        <v>5.422942826147524E-06</v>
       </c>
       <c r="T25">
-        <v>0.03220463702291423</v>
+        <v>7.817094933844257E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>8.606016</v>
+        <v>0.01333133333333333</v>
       </c>
       <c r="H26">
-        <v>25.818048</v>
+        <v>0.039994</v>
       </c>
       <c r="I26">
-        <v>0.05146576705890407</v>
+        <v>7.439450510585445E-05</v>
       </c>
       <c r="J26">
-        <v>0.05919082835395066</v>
+        <v>8.858919256550655E-05</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>1416.354623159328</v>
+        <v>2.687006961822334</v>
       </c>
       <c r="R26">
-        <v>8498.127738955967</v>
+        <v>16.122041770934</v>
       </c>
       <c r="S26">
-        <v>0.0119439975236023</v>
+        <v>2.09396773315988E-05</v>
       </c>
       <c r="T26">
-        <v>0.01068748430409194</v>
+        <v>2.012283131536762E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>8.606016</v>
+        <v>0.01333133333333333</v>
       </c>
       <c r="H27">
-        <v>25.818048</v>
+        <v>0.039994</v>
       </c>
       <c r="I27">
-        <v>0.05146576705890407</v>
+        <v>7.439450510585445E-05</v>
       </c>
       <c r="J27">
-        <v>0.05919082835395066</v>
+        <v>8.858919256550655E-05</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>1022.087706997248</v>
+        <v>1.583286844677333</v>
       </c>
       <c r="R27">
-        <v>9198.789362975231</v>
+        <v>14.249581602096</v>
       </c>
       <c r="S27">
-        <v>0.008619178305817701</v>
+        <v>1.233845543460139E-05</v>
       </c>
       <c r="T27">
-        <v>0.01156865605617781</v>
+        <v>1.778570797468737E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>8.606016</v>
+        <v>0.01333133333333333</v>
       </c>
       <c r="H28">
-        <v>25.818048</v>
+        <v>0.039994</v>
       </c>
       <c r="I28">
-        <v>0.05146576705890407</v>
+        <v>7.439450510585445E-05</v>
       </c>
       <c r="J28">
-        <v>0.05919082835395066</v>
+        <v>8.858919256550655E-05</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>727.483374453312</v>
+        <v>1.034683943013556</v>
       </c>
       <c r="R28">
-        <v>6547.350370079808</v>
+        <v>9.312155487122</v>
       </c>
       <c r="S28">
-        <v>0.006134805140502414</v>
+        <v>8.063227306339511E-06</v>
       </c>
       <c r="T28">
-        <v>0.008234131853872929</v>
+        <v>1.162302744976545E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>8.606016</v>
+        <v>0.01333133333333333</v>
       </c>
       <c r="H29">
-        <v>25.818048</v>
+        <v>0.039994</v>
       </c>
       <c r="I29">
-        <v>0.05146576705890407</v>
+        <v>7.439450510585445E-05</v>
       </c>
       <c r="J29">
-        <v>0.05919082835395066</v>
+        <v>8.858919256550655E-05</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>1204.052762819232</v>
+        <v>2.293519140517</v>
       </c>
       <c r="R29">
-        <v>7224.316576915392</v>
+        <v>13.761114843102</v>
       </c>
       <c r="S29">
-        <v>0.0101536740744494</v>
+        <v>1.787325133080442E-05</v>
       </c>
       <c r="T29">
-        <v>0.009085503583293983</v>
+        <v>1.717602501181838E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>8.606016</v>
+        <v>0.01333133333333333</v>
       </c>
       <c r="H30">
-        <v>25.818048</v>
+        <v>0.039994</v>
       </c>
       <c r="I30">
-        <v>0.05146576705890407</v>
+        <v>7.439450510585445E-05</v>
       </c>
       <c r="J30">
-        <v>0.05919082835395066</v>
+        <v>8.858919256550655E-05</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>1047.638589836544</v>
+        <v>0.7979105043575555</v>
       </c>
       <c r="R30">
-        <v>9428.747308528895</v>
+        <v>7.181194539218</v>
       </c>
       <c r="S30">
-        <v>0.008834646717731145</v>
+        <v>6.218066695818709E-06</v>
       </c>
       <c r="T30">
-        <v>0.01185785763200726</v>
+        <v>8.963254680064708E-06</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>8.606016</v>
+        <v>0.01333133333333333</v>
       </c>
       <c r="H31">
-        <v>25.818048</v>
+        <v>0.039994</v>
       </c>
       <c r="I31">
-        <v>0.05146576705890407</v>
+        <v>7.439450510585445E-05</v>
       </c>
       <c r="J31">
-        <v>0.05919082835395066</v>
+        <v>8.858919256550655E-05</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>685.3461227145601</v>
+        <v>1.149993439549778</v>
       </c>
       <c r="R31">
-        <v>6168.115104431041</v>
+        <v>10.349940955948</v>
       </c>
       <c r="S31">
-        <v>0.005779465296801107</v>
+        <v>8.961827006691628E-06</v>
       </c>
       <c r="T31">
-        <v>0.007757194924506736</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.07955966666666668</v>
-      </c>
-      <c r="H32">
-        <v>0.238679</v>
-      </c>
-      <c r="I32">
-        <v>0.0004757833673503189</v>
-      </c>
-      <c r="J32">
-        <v>0.0005471989098746966</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>164.5772705</v>
-      </c>
-      <c r="N32">
-        <v>329.154541</v>
-      </c>
-      <c r="O32">
-        <v>0.2320765473082729</v>
-      </c>
-      <c r="P32">
-        <v>0.1805598029509348</v>
-      </c>
-      <c r="Q32">
-        <v>13.09371278188983</v>
-      </c>
-      <c r="R32">
-        <v>78.56227669133901</v>
-      </c>
-      <c r="S32">
-        <v>0.0001104181611613657</v>
-      </c>
-      <c r="T32">
-        <v>9.880212734194154E-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.07955966666666668</v>
-      </c>
-      <c r="H33">
-        <v>0.238679</v>
-      </c>
-      <c r="I33">
-        <v>0.0004757833673503189</v>
-      </c>
-      <c r="J33">
-        <v>0.0005471989098746966</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>118.764328</v>
-      </c>
-      <c r="N33">
-        <v>356.2929839999999</v>
-      </c>
-      <c r="O33">
-        <v>0.1674740084210306</v>
-      </c>
-      <c r="P33">
-        <v>0.1954467673099505</v>
-      </c>
-      <c r="Q33">
-        <v>9.448850347570666</v>
-      </c>
-      <c r="R33">
-        <v>85.039653128136</v>
-      </c>
-      <c r="S33">
-        <v>7.968134767021361E-05</v>
-      </c>
-      <c r="T33">
-        <v>0.0001069482580105384</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.07955966666666668</v>
-      </c>
-      <c r="H34">
-        <v>0.238679</v>
-      </c>
-      <c r="I34">
-        <v>0.0004757833673503189</v>
-      </c>
-      <c r="J34">
-        <v>0.0005471989098746966</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>84.53195699999999</v>
-      </c>
-      <c r="N34">
-        <v>253.595871</v>
-      </c>
-      <c r="O34">
-        <v>0.1192016653221344</v>
-      </c>
-      <c r="P34">
-        <v>0.1391116171686985</v>
-      </c>
-      <c r="Q34">
-        <v>6.725334321601</v>
-      </c>
-      <c r="R34">
-        <v>60.52800889440901</v>
-      </c>
-      <c r="S34">
-        <v>5.671416972073086E-05</v>
-      </c>
-      <c r="T34">
-        <v>7.612172526561796E-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.07955966666666668</v>
-      </c>
-      <c r="H35">
-        <v>0.238679</v>
-      </c>
-      <c r="I35">
-        <v>0.0004757833673503189</v>
-      </c>
-      <c r="J35">
-        <v>0.0005471989098746966</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>139.9082645</v>
-      </c>
-      <c r="N35">
-        <v>279.816529</v>
-      </c>
-      <c r="O35">
-        <v>0.1972898618770847</v>
-      </c>
-      <c r="P35">
-        <v>0.1534951247677137</v>
-      </c>
-      <c r="Q35">
-        <v>11.13105488753184</v>
-      </c>
-      <c r="R35">
-        <v>66.78632932519101</v>
-      </c>
-      <c r="S35">
-        <v>9.386723482795866E-05</v>
-      </c>
-      <c r="T35">
-        <v>8.399236494397348E-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.07955966666666668</v>
-      </c>
-      <c r="H36">
-        <v>0.238679</v>
-      </c>
-      <c r="I36">
-        <v>0.0004757833673503189</v>
-      </c>
-      <c r="J36">
-        <v>0.0005471989098746966</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>121.733284</v>
-      </c>
-      <c r="N36">
-        <v>365.199852</v>
-      </c>
-      <c r="O36">
-        <v>0.1716606440086599</v>
-      </c>
-      <c r="P36">
-        <v>0.2003326860218846</v>
-      </c>
-      <c r="Q36">
-        <v>9.685059497278667</v>
-      </c>
-      <c r="R36">
-        <v>87.16553547550801</v>
-      </c>
-      <c r="S36">
-        <v>8.167327924796453E-05</v>
-      </c>
-      <c r="T36">
-        <v>0.0001096218274034451</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.07955966666666668</v>
-      </c>
-      <c r="H37">
-        <v>0.238679</v>
-      </c>
-      <c r="I37">
-        <v>0.0004757833673503189</v>
-      </c>
-      <c r="J37">
-        <v>0.0005471989098746966</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>79.63570166666668</v>
-      </c>
-      <c r="N37">
-        <v>238.907105</v>
-      </c>
-      <c r="O37">
-        <v>0.1122972730628175</v>
-      </c>
-      <c r="P37">
-        <v>0.1310540017808179</v>
-      </c>
-      <c r="Q37">
-        <v>6.335789879366113</v>
-      </c>
-      <c r="R37">
-        <v>57.02210891429502</v>
-      </c>
-      <c r="S37">
-        <v>5.342917472208556E-05</v>
-      </c>
-      <c r="T37">
-        <v>7.171260690918009E-05</v>
+        <v>1.291834613380303E-05</v>
       </c>
     </row>
   </sheetData>
